--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1522832-A9E1-49DE-B85A-718FB161EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA67993-1E0D-46BF-85F8-0FC80C69B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-19950" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-3930" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>Unit</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>48h</t>
+  </si>
+  <si>
+    <t>start_up_Output1</t>
+  </si>
+  <si>
+    <t>start_up_Output2</t>
+  </si>
+  <si>
+    <t>shut_down_Output1</t>
+  </si>
+  <si>
+    <t>shut_down_Output2</t>
   </si>
 </sst>
 </file>
@@ -312,9 +324,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AC6" totalsRowShown="0">
-  <autoFilter ref="A1:AC6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG6" totalsRowShown="0">
+  <autoFilter ref="A1:AG6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -333,6 +345,10 @@
     <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="ramp_up_Output2"/>
     <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_down_Output1"/>
     <tableColumn id="29" xr3:uid="{5A66563E-85FF-4FFA-9DB7-EAC64F37E721}" name="ramp_down_Output2"/>
+    <tableColumn id="30" xr3:uid="{98C94D50-387A-4596-96E7-17395B3AF62E}" name="start_up_Output1"/>
+    <tableColumn id="31" xr3:uid="{FF26E17F-A633-477F-A8B8-3FD0C0B88F7D}" name="start_up_Output2"/>
+    <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="shut_down_Output1"/>
+    <tableColumn id="33" xr3:uid="{D8C88D78-E68F-45EF-8A97-7C1F84821946}" name="shut_down_Output2"/>
     <tableColumn id="9" xr3:uid="{50F936EF-D32C-4938-8FCA-291A6A3E82E6}" name="Relation_In_In"/>
     <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="Relation_In_Out"/>
     <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_Out_Out"/>
@@ -701,11 +717,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -719,17 +733,17 @@
     <col min="11" max="11" width="20.08984375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="18" width="10.54296875" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7265625" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7265625" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,40 +799,52 @@
         <v>64</v>
       </c>
       <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -831,11 +857,17 @@
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="X2">
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -857,17 +889,17 @@
       <c r="G3">
         <v>52</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>4.7614285714285716</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -883,11 +915,11 @@
       <c r="K4">
         <v>100</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -903,12 +935,12 @@
       <c r="J5">
         <v>52</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <f>1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -945,17 +977,17 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <f>1/0.96</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>4</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AA6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1238,9 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA67993-1E0D-46BF-85F8-0FC80C69B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E99FC0-8B9F-4108-8FE2-E5B2C95F4C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3930" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Unit</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>shut_down_Output2</t>
+  </si>
+  <si>
+    <t>minimum_operating_point</t>
   </si>
 </sst>
 </file>
@@ -324,9 +327,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG6" totalsRowShown="0">
-  <autoFilter ref="A1:AG6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AH6" totalsRowShown="0">
+  <autoFilter ref="A1:AH6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -360,6 +363,7 @@
     <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost_Input2"/>
     <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Output1"/>
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
+    <tableColumn id="34" xr3:uid="{C9CD424A-4B47-4A21-B64C-9BEBE725BFC9}" name="minimum_operating_point"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,9 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -741,9 +747,10 @@
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,8 +850,11 @@
       <c r="AG1" t="s">
         <v>57</v>
       </c>
+      <c r="AH1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -857,6 +867,9 @@
       <c r="K2">
         <v>304</v>
       </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
       <c r="S2">
         <v>0.5</v>
       </c>
@@ -866,8 +879,11 @@
       <c r="AB2">
         <v>100</v>
       </c>
+      <c r="AH2">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -899,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -919,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -940,7 +956,7 @@
         <v>1.2578616352201257</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E99FC0-8B9F-4108-8FE2-E5B2C95F4C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA67993-1E0D-46BF-85F8-0FC80C69B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3930" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>Unit</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>shut_down_Output2</t>
-  </si>
-  <si>
-    <t>minimum_operating_point</t>
   </si>
 </sst>
 </file>
@@ -327,9 +324,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AH6" totalsRowShown="0">
-  <autoFilter ref="A1:AH6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG6" totalsRowShown="0">
+  <autoFilter ref="A1:AG6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -363,7 +360,6 @@
     <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost_Input2"/>
     <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Output1"/>
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
-    <tableColumn id="34" xr3:uid="{C9CD424A-4B47-4A21-B64C-9BEBE725BFC9}" name="minimum_operating_point"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,11 +717,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -747,10 +741,9 @@
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -850,11 +843,8 @@
       <c r="AG1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -867,9 +857,6 @@
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="Q2">
-        <v>0.1</v>
-      </c>
       <c r="S2">
         <v>0.5</v>
       </c>
@@ -879,11 +866,8 @@
       <c r="AB2">
         <v>100</v>
       </c>
-      <c r="AH2">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -915,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -935,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -956,7 +940,7 @@
         <v>1.2578616352201257</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA67993-1E0D-46BF-85F8-0FC80C69B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6349F45-484C-4F55-B136-78F04EBB6B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3930" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Unit</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>shut_down_Output2</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output2</t>
   </si>
 </sst>
 </file>
@@ -324,9 +330,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG6" totalsRowShown="0">
-  <autoFilter ref="A1:AG6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AI6" totalsRowShown="0">
+  <autoFilter ref="A1:AI6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -360,6 +366,8 @@
     <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost_Input2"/>
     <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Output1"/>
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
+    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point_Output1"/>
+    <tableColumn id="35" xr3:uid="{2E0DBCBA-C50C-4413-ACD0-EC127B90A7E9}" name="minimum_op_point_Output2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,9 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -743,7 +753,7 @@
     <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,8 +853,14 @@
       <c r="AG1" t="s">
         <v>57</v>
       </c>
+      <c r="AH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -857,17 +873,26 @@
       <c r="K2">
         <v>304</v>
       </c>
+      <c r="O2">
+        <v>0.3</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
       <c r="S2">
         <v>0.5</v>
       </c>
       <c r="U2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AB2">
         <v>100</v>
       </c>
+      <c r="AH2">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -899,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -919,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -940,7 +965,7 @@
         <v>1.2578616352201257</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6349F45-484C-4F55-B136-78F04EBB6B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF33F8D-4719-4A2D-B76C-D69E322B44B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3930" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Unit</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>minimum_op_point_Output2</t>
+  </si>
+  <si>
+    <t>unit_idle_heat_rate</t>
   </si>
 </sst>
 </file>
@@ -330,9 +333,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AI6" totalsRowShown="0">
-  <autoFilter ref="A1:AI6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ6" totalsRowShown="0">
+  <autoFilter ref="A1:AJ6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -368,6 +371,7 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point_Output1"/>
     <tableColumn id="35" xr3:uid="{2E0DBCBA-C50C-4413-ACD0-EC127B90A7E9}" name="minimum_op_point_Output2"/>
+    <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,9 +755,11 @@
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7265625" customWidth="1"/>
+    <col min="36" max="36" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,8 +865,11 @@
       <c r="AI1" t="s">
         <v>72</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -892,7 +901,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -923,8 +932,11 @@
       <c r="AD3">
         <v>1</v>
       </c>
+      <c r="AJ3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -944,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -965,7 +977,7 @@
         <v>1.2578616352201257</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1014,6 +1026,9 @@
       </c>
       <c r="AA6" t="s">
         <v>61</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF33F8D-4719-4A2D-B76C-D69E322B44B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087519F6-DD80-4DC3-ACB6-F1D102846F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,9 +932,6 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -955,6 +952,9 @@
       <c r="X4">
         <v>1</v>
       </c>
+      <c r="AJ4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -975,6 +975,9 @@
       <c r="X5">
         <f>1/0.795</f>
         <v>1.2578616352201257</v>
+      </c>
+      <c r="AJ5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087519F6-DD80-4DC3-ACB6-F1D102846F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460A6F1-9AD4-4A1C-A027-6005A14A6F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,23 +882,8 @@
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="O2">
-        <v>0.3</v>
-      </c>
-      <c r="Q2">
-        <v>0.1</v>
-      </c>
-      <c r="S2">
-        <v>0.5</v>
-      </c>
-      <c r="U2">
-        <v>0.2</v>
-      </c>
       <c r="AB2">
         <v>100</v>
-      </c>
-      <c r="AH2">
-        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -924,13 +909,13 @@
         <v>52</v>
       </c>
       <c r="W3">
-        <v>4.7614285714285716</v>
+        <v>6.3E-3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
+        <v>1.76</v>
+      </c>
+      <c r="AB3">
+        <v>216.9</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460A6F1-9AD4-4A1C-A027-6005A14A6F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC529E3-EE7D-422B-8B7A-E5167E1FFDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>unit_on_cost</t>
   </si>
   <si>
-    <t>0.0000001</t>
-  </si>
-  <si>
     <t>ramp_up_Output1</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>unit_idle_heat_rate</t>
+  </si>
+  <si>
+    <t>Steam</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,28 +803,28 @@
         <v>59</v>
       </c>
       <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
       <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
       </c>
       <c r="W1" t="s">
         <v>39</v>
@@ -860,13 +860,13 @@
         <v>57</v>
       </c>
       <c r="AH1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>72</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -948,6 +948,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -956,6 +959,9 @@
       </c>
       <c r="J5">
         <v>52</v>
+      </c>
+      <c r="W5">
+        <v>11.03</v>
       </c>
       <c r="X5">
         <f>1/0.795</f>
@@ -982,19 +988,16 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>100</v>
       </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
       <c r="M6">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>0.5</v>
@@ -1002,18 +1005,24 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
       <c r="W6">
-        <v>1</v>
+        <v>4.57</v>
       </c>
       <c r="X6">
         <f>1/0.96</f>
         <v>1.0416666666666667</v>
       </c>
       <c r="Y6">
-        <v>4</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>61</v>
+        <v>4.32</v>
+      </c>
+      <c r="AB6">
+        <v>4.45</v>
       </c>
       <c r="AJ6">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC529E3-EE7D-422B-8B7A-E5167E1FFDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACD116-E249-4249-AA75-B28CBB593727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,7 +961,7 @@
         <v>52</v>
       </c>
       <c r="W5">
-        <v>11.03</v>
+        <v>11.99</v>
       </c>
       <c r="X5">
         <f>1/0.795</f>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACD116-E249-4249-AA75-B28CBB593727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357BF5C-ED51-4D4C-905E-58A472E833CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,7 +883,7 @@
         <v>304</v>
       </c>
       <c r="AB2">
-        <v>100</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -915,7 +915,7 @@
         <v>1.76</v>
       </c>
       <c r="AB3">
-        <v>216.9</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357BF5C-ED51-4D4C-905E-58A472E833CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30138DB8-6EAE-4D7D-95CE-425931E40093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Unit</t>
   </si>
@@ -732,7 +732,7 @@
   <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,6 +925,9 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -933,6 +936,9 @@
       </c>
       <c r="K4">
         <v>100</v>
+      </c>
+      <c r="W4">
+        <v>280.5</v>
       </c>
       <c r="X4">
         <v>1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087519F6-DD80-4DC3-ACB6-F1D102846F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB2C8E7-1FE4-473F-951E-2DF40931985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,6 +898,9 @@
         <v>100</v>
       </c>
       <c r="AH2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ2">
         <v>0.2</v>
       </c>
     </row>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB2C8E7-1FE4-473F-951E-2DF40931985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30138DB8-6EAE-4D7D-95CE-425931E40093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Unit</t>
   </si>
@@ -223,9 +223,6 @@
     <t>unit_on_cost</t>
   </si>
   <si>
-    <t>0.0000001</t>
-  </si>
-  <si>
     <t>ramp_up_Output1</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>unit_idle_heat_rate</t>
+  </si>
+  <si>
+    <t>Steam</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,28 +803,28 @@
         <v>59</v>
       </c>
       <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
       <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
       </c>
       <c r="W1" t="s">
         <v>39</v>
@@ -860,13 +860,13 @@
         <v>57</v>
       </c>
       <c r="AH1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>72</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -882,26 +882,8 @@
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="O2">
-        <v>0.3</v>
-      </c>
-      <c r="Q2">
-        <v>0.1</v>
-      </c>
-      <c r="S2">
-        <v>0.5</v>
-      </c>
-      <c r="U2">
-        <v>0.2</v>
-      </c>
       <c r="AB2">
-        <v>100</v>
-      </c>
-      <c r="AH2">
-        <v>0.2</v>
-      </c>
-      <c r="AJ2">
-        <v>0.2</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -927,13 +909,13 @@
         <v>52</v>
       </c>
       <c r="W3">
-        <v>4.7614285714285716</v>
+        <v>6.3E-3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
+        <v>1.76</v>
+      </c>
+      <c r="AB3">
+        <v>4.34</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -943,6 +925,9 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -951,6 +936,9 @@
       </c>
       <c r="K4">
         <v>100</v>
+      </c>
+      <c r="W4">
+        <v>280.5</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -966,6 +954,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -974,6 +965,9 @@
       </c>
       <c r="J5">
         <v>52</v>
+      </c>
+      <c r="W5">
+        <v>11.99</v>
       </c>
       <c r="X5">
         <f>1/0.795</f>
@@ -1000,19 +994,16 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>100</v>
       </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
       <c r="M6">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>0.5</v>
@@ -1020,18 +1011,24 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
       <c r="W6">
-        <v>1</v>
+        <v>4.57</v>
       </c>
       <c r="X6">
         <f>1/0.96</f>
         <v>1.0416666666666667</v>
       </c>
       <c r="Y6">
-        <v>4</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>61</v>
+        <v>4.32</v>
+      </c>
+      <c r="AB6">
+        <v>4.45</v>
       </c>
       <c r="AJ6">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30138DB8-6EAE-4D7D-95CE-425931E40093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA544A48-F368-41BB-B06D-38FE1546151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Unit</t>
   </si>
@@ -250,23 +250,23 @@
     <t>shut_down_Output2</t>
   </si>
   <si>
-    <t>minimum_op_point_Output1</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Output2</t>
-  </si>
-  <si>
     <t>unit_idle_heat_rate</t>
   </si>
   <si>
     <t>Steam</t>
+  </si>
+  <si>
+    <t>minimum_op_point</t>
+  </si>
+  <si>
+    <t>Error messages:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +276,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,13 +308,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -369,9 +437,11 @@
     <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost_Input2"/>
     <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Output1"/>
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
-    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point_Output1"/>
-    <tableColumn id="35" xr3:uid="{2E0DBCBA-C50C-4413-ACD0-EC127B90A7E9}" name="minimum_op_point_Output2"/>
+    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -386,7 +456,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -415,7 +485,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -729,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +826,8 @@
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="19" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+    <col min="36" max="36" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -860,13 +931,13 @@
         <v>57</v>
       </c>
       <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>72</v>
+      <c r="AJ1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -876,14 +947,18 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>304</v>
-      </c>
       <c r="K2">
         <v>304</v>
       </c>
+      <c r="L2">
+        <v>304</v>
+      </c>
       <c r="AB2">
         <v>1.29</v>
+      </c>
+      <c r="AJ2" s="1" t="str">
+        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -917,6 +992,10 @@
       <c r="AB3">
         <v>4.34</v>
       </c>
+      <c r="AJ3" s="1" t="str">
+        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -943,8 +1022,12 @@
       <c r="X4">
         <v>1</v>
       </c>
-      <c r="AJ4">
+      <c r="AI4">
         <v>0.1</v>
+      </c>
+      <c r="AJ4" s="1" t="str">
+        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -955,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -973,8 +1056,12 @@
         <f>1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AJ5">
+      <c r="AI5">
         <v>0.1</v>
+      </c>
+      <c r="AJ5" s="1" t="str">
+        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
@@ -1030,8 +1117,21 @@
       <c r="AB6">
         <v>4.45</v>
       </c>
-      <c r="AJ6">
+      <c r="AI6">
         <v>0.1</v>
+      </c>
+      <c r="AJ6" s="1" t="str">
+        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>IF(COUNTBLANK(AJ2:AJ6)&lt;&gt;ROWS(AJ2:AJ6),"Please check error message on the right","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA544A48-F368-41BB-B06D-38FE1546151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7836D1-D6D4-4896-AA0D-4D6F83BE74FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Unit</t>
   </si>
@@ -266,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,14 +314,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -333,59 +351,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,8 +404,8 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</calculatedColumnFormula>
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
+      <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -456,7 +421,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -485,7 +450,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -802,7 +767,7 @@
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,7 +792,7 @@
     <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.7265625" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
-    <col min="36" max="36" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -947,17 +912,20 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
+      <c r="J2">
+        <v>304</v>
+      </c>
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="L2">
-        <v>304</v>
-      </c>
       <c r="AB2">
         <v>1.29</v>
       </c>
-      <c r="AJ2" s="1" t="str">
-        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+      <c r="AH2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ2" s="2" t="str">
+        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
@@ -992,8 +960,11 @@
       <c r="AB3">
         <v>4.34</v>
       </c>
-      <c r="AJ3" s="1" t="str">
-        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+      <c r="AH3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3" s="2" t="str">
+        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
@@ -1022,11 +993,14 @@
       <c r="X4">
         <v>1</v>
       </c>
+      <c r="AH4">
+        <v>0.2</v>
+      </c>
       <c r="AI4">
         <v>0.1</v>
       </c>
-      <c r="AJ4" s="1" t="str">
-        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+      <c r="AJ4" s="2" t="str">
+        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
@@ -1059,8 +1033,8 @@
       <c r="AI5">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="1" t="str">
-        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+      <c r="AJ5" s="2" t="str">
+        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
@@ -1120,25 +1094,20 @@
       <c r="AI6">
         <v>0.1</v>
       </c>
-      <c r="AJ6" s="1" t="str">
-        <f>IF(Table1[[#This Row],[minimum_op_point]]&lt;&gt;"",IF(AND(ISBLANK(Table1[[#This Row],[Cap_Input1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Input2_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output1_existing]]),ISBLANK(Table1[[#This Row],[Cap_Output2_existing]])),"no capacity is given",""),"")</f>
+      <c r="AJ6" s="2" t="str">
+        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>IF(COUNTBLANK(AJ2:AJ6)&lt;&gt;ROWS(AJ2:AJ6),"Please check error message on the right","")</f>
-        <v/>
-      </c>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7836D1-D6D4-4896-AA0D-4D6F83BE74FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA48EC2D-BB8E-4BAB-922C-07B6C57B1583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,9 +921,6 @@
       <c r="AB2">
         <v>1.29</v>
       </c>
-      <c r="AH2">
-        <v>0.5</v>
-      </c>
       <c r="AJ2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
@@ -961,7 +958,7 @@
         <v>4.34</v>
       </c>
       <c r="AH3">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="AJ3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
@@ -992,9 +989,6 @@
       </c>
       <c r="X4">
         <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0.2</v>
       </c>
       <c r="AI4">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA48EC2D-BB8E-4BAB-922C-07B6C57B1583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C9C77-E74A-4501-9E09-6DD59E4C315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,7 +949,7 @@
         <v>52</v>
       </c>
       <c r="W3">
-        <v>6.3E-3</v>
+        <v>5.8500000000000002E-3</v>
       </c>
       <c r="Y3">
         <v>1.76</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C9C77-E74A-4501-9E09-6DD59E4C315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772AF23C-1873-4292-9CDC-753E54F5F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,9 +1260,6 @@
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="U2">
-        <v>100</v>
-      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1376,7 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1443,9 +1442,6 @@
       <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772AF23C-1873-4292-9CDC-753E54F5F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,6 +1256,9 @@
       </c>
       <c r="N2">
         <v>1000</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
       <c r="S2">
         <v>1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3A9CA2-BE72-4347-B037-4D46E66EC1AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Unit</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Error messages:</t>
+  </si>
+  <si>
+    <t>Steam_Plant</t>
   </si>
 </sst>
 </file>
@@ -366,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ6" totalsRowShown="0">
-  <autoFilter ref="A1:AJ6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ7" totalsRowShown="0">
+  <autoFilter ref="A1:AJ7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,6 +1096,30 @@
         <v/>
       </c>
     </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="W7">
+        <v>0.2</v>
+      </c>
+      <c r="AJ7" s="1" t="str">
+        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
+        <v/>
+      </c>
+    </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
@@ -1110,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3A9CA2-BE72-4347-B037-4D46E66EC1AD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A475E2DF-F9D7-48C7-AE6D-122D09AB0AC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -327,17 +327,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -354,6 +343,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,7 +407,7 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="0">
       <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -424,7 +424,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -453,7 +453,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,6 +921,10 @@
       <c r="K2">
         <v>304</v>
       </c>
+      <c r="Z2">
+        <f>Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
+        <v>170.24</v>
+      </c>
       <c r="AB2">
         <v>1.29</v>
       </c>
@@ -1137,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A475E2DF-F9D7-48C7-AE6D-122D09AB0AC5}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B818528D-BFC2-4302-BACA-2E876E13705B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -17,6 +17,40 @@
     <sheet name="Connections" sheetId="2" r:id="rId2"/>
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="CIQWBGuid" hidden="1">"d2034e36-8705-4dfd-a632-cd174c2c5e1f"</definedName>
+    <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">45429.7589699074</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Unit</t>
   </si>
@@ -263,6 +297,9 @@
   </si>
   <si>
     <t>Steam_Plant</t>
+  </si>
+  <si>
+    <t>mean_efficiency</t>
   </si>
 </sst>
 </file>
@@ -327,6 +364,17 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -344,17 +392,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -369,9 +406,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ7" totalsRowShown="0">
-  <autoFilter ref="A1:AJ7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AK7" totalsRowShown="0">
+  <autoFilter ref="A1:AK7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -385,6 +422,7 @@
     <tableColumn id="17" xr3:uid="{6408F114-841E-472E-92F5-7B63FF1B66F4}" name="Cap_Output_1_max"/>
     <tableColumn id="18" xr3:uid="{541C17F0-C020-47FE-9DA4-DB76D7416668}" name="Cap_Output2_existing"/>
     <tableColumn id="19" xr3:uid="{D6FEE63D-DC89-4D1A-9708-5E7C70FD5793}" name="Cap_Output2_max"/>
+    <tableColumn id="35" xr3:uid="{C3887B4E-C4A5-42AB-A92F-97AD44212E95}" name="mean_efficiency"/>
     <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="min_down_time"/>
     <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up_Output1"/>
     <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="ramp_up_Output2"/>
@@ -407,7 +445,7 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="0">
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
       <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -424,7 +462,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -453,7 +491,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -471,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,21 +822,22 @@
     <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.08984375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.7265625" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" customWidth="1"/>
-    <col min="35" max="35" width="19" customWidth="1"/>
-    <col min="36" max="36" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7265625" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7265625" customWidth="1"/>
+    <col min="36" max="36" width="19" customWidth="1"/>
+    <col min="37" max="37" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,76 +878,79 @@
         <v>35</v>
       </c>
       <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>69</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -921,19 +963,19 @@
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
         <v>170.24</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1.29</v>
       </c>
-      <c r="AJ2" s="2" t="str">
+      <c r="AK2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -955,24 +997,27 @@
       <c r="G3">
         <v>52</v>
       </c>
-      <c r="W3">
+      <c r="N3">
+        <v>0.6</v>
+      </c>
+      <c r="X3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1.76</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4.34</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.19</v>
       </c>
-      <c r="AJ3" s="2" t="str">
+      <c r="AK3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -991,21 +1036,21 @@
       <c r="K4">
         <v>100</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>280.5</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.1</v>
       </c>
-      <c r="AJ4" s="2" t="str">
+      <c r="AK4" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1024,22 +1069,22 @@
       <c r="J5">
         <v>52</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>11.99</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f>1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="2" t="str">
+      <c r="AK5" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1064,43 +1109,46 @@
       <c r="M6">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>0.7</v>
+      </c>
+      <c r="O6" t="s">
         <v>65</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.5</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.5</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4.57</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f>1/0.96</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4.32</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4.45</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.1</v>
       </c>
-      <c r="AJ6" s="2" t="str">
+      <c r="AK6" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1116,15 +1164,15 @@
       <c r="J7">
         <v>200</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.2</v>
       </c>
-      <c r="AJ7" s="1" t="str">
+      <c r="AK7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,23 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CD7C9A72-B5B5-4637-9CB4-6AF5ED637E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A475E2DF-F9D7-48C7-AE6D-122D09AB0AC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCC1DD-E064-4774-822D-3D8D47CE3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
     <sheet name="Connections" sheetId="2" r:id="rId2"/>
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="CIQWBGuid" hidden="1">"d2034e36-8705-4dfd-a632-cd174c2c5e1f"</definedName>
+    <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">45429.7589699074</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,51 +72,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Unit</t>
   </si>
   <si>
+    <t>Input1</t>
+  </si>
+  <si>
+    <t>Input2</t>
+  </si>
+  <si>
+    <t>Output1</t>
+  </si>
+  <si>
+    <t>Output2</t>
+  </si>
+  <si>
+    <t>Cap_Input1_existing</t>
+  </si>
+  <si>
+    <t>Cap_Input1_max</t>
+  </si>
+  <si>
+    <t>Cap_Input2_existing</t>
+  </si>
+  <si>
+    <t>Cap_Input2_max</t>
+  </si>
+  <si>
+    <t>Cap_Output1_existing</t>
+  </si>
+  <si>
+    <t>Cap_Output_1_max</t>
+  </si>
+  <si>
+    <t>Cap_Output2_existing</t>
+  </si>
+  <si>
+    <t>Cap_Output2_max</t>
+  </si>
+  <si>
+    <t>mean_efficiency</t>
+  </si>
+  <si>
+    <t>min_down_time</t>
+  </si>
+  <si>
+    <t>ramp_up_Output1</t>
+  </si>
+  <si>
+    <t>ramp_up_Output2</t>
+  </si>
+  <si>
+    <t>ramp_down_Output1</t>
+  </si>
+  <si>
+    <t>ramp_down_Output2</t>
+  </si>
+  <si>
+    <t>start_up_Output1</t>
+  </si>
+  <si>
+    <t>start_up_Output2</t>
+  </si>
+  <si>
+    <t>shut_down_Output1</t>
+  </si>
+  <si>
+    <t>shut_down_Output2</t>
+  </si>
+  <si>
+    <t>Relation_In_In</t>
+  </si>
+  <si>
+    <t>Relation_In_Out</t>
+  </si>
+  <si>
+    <t>Relation_Out_Out</t>
+  </si>
+  <si>
+    <t>Cost_invest</t>
+  </si>
+  <si>
+    <t>unit_on_cost</t>
+  </si>
+  <si>
+    <t>fom_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>vom_cost_Input1</t>
+  </si>
+  <si>
+    <t>vom_cost_Input2</t>
+  </si>
+  <si>
+    <t>vom_cost_Output1</t>
+  </si>
+  <si>
+    <t>vom_cost_Output2</t>
+  </si>
+  <si>
+    <t>minimum_op_point</t>
+  </si>
+  <si>
+    <t>unit_idle_heat_rate</t>
+  </si>
+  <si>
+    <t>Error messages:</t>
+  </si>
+  <si>
+    <t>Solar_Plant_Kasso</t>
+  </si>
+  <si>
+    <t>Power_Kasso</t>
+  </si>
+  <si>
     <t>Electrolyzer</t>
   </si>
   <si>
-    <t>Input1</t>
-  </si>
-  <si>
-    <t>Input2</t>
-  </si>
-  <si>
-    <t>Output1</t>
-  </si>
-  <si>
-    <t>Output2</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
+    <t>Hydrogen_Kasso</t>
+  </si>
+  <si>
+    <t>Waste_Heat</t>
+  </si>
+  <si>
+    <t>CO2_Vaporizer</t>
+  </si>
+  <si>
+    <t>Carbon_Dioxide</t>
+  </si>
+  <si>
+    <t>Vaporized_Carbon_Dioxide</t>
+  </si>
+  <si>
+    <t>Destilation_Tower</t>
+  </si>
+  <si>
+    <t>Raw_Methanol</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>E-Methanol_Kasso</t>
+  </si>
+  <si>
+    <t>Methanol_Reactor</t>
+  </si>
+  <si>
+    <t>48h</t>
+  </si>
+  <si>
+    <t>Steam_Plant</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Connection_type</t>
+  </si>
+  <si>
+    <t>Cap_Output1_max</t>
+  </si>
+  <si>
     <t>Efficency</t>
   </si>
   <si>
-    <t>Cost_invest</t>
-  </si>
-  <si>
-    <t>CO2_Vaporizer</t>
-  </si>
-  <si>
-    <t>Vaporized_Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Methanol_Reactor</t>
-  </si>
-  <si>
-    <t>Hydrogen_Kasso</t>
-  </si>
-  <si>
-    <t>Raw_Methanol</t>
-  </si>
-  <si>
-    <t>Destilation_Tower</t>
+    <t>Relation_Out_In</t>
   </si>
   <si>
     <t>power_line_Wholesale_Kasso</t>
@@ -91,85 +254,37 @@
     <t>Power_Wholesale</t>
   </si>
   <si>
-    <t>Power_Kasso</t>
+    <t>connection_type_lossless_bidirectional</t>
   </si>
   <si>
     <t>pipeline_storage_hydrogen</t>
   </si>
   <si>
+    <t>Hydrogen_storage_Kasso</t>
+  </si>
+  <si>
     <t>pipeline_storage_e-methanol</t>
   </si>
   <si>
+    <t>E-Methanol_storage_Kasso</t>
+  </si>
+  <si>
     <t>pipeline_District_Heating</t>
   </si>
   <si>
-    <t>Hydrogen_storage_Kasso</t>
-  </si>
-  <si>
-    <t>Waste_Heat</t>
-  </si>
-  <si>
-    <t>E-Methanol_storage_Kasso</t>
-  </si>
-  <si>
-    <t>E-Methanol_Kasso</t>
-  </si>
-  <si>
     <t>District_Heating</t>
   </si>
   <si>
-    <t>Solar_Plant_Kasso</t>
-  </si>
-  <si>
-    <t>Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Cap_Input1_existing</t>
-  </si>
-  <si>
-    <t>Cap_Input2_max</t>
-  </si>
-  <si>
-    <t>Cap_Input1_max</t>
-  </si>
-  <si>
-    <t>Cap_Input2_existing</t>
-  </si>
-  <si>
-    <t>Cap_Output1_max</t>
-  </si>
-  <si>
-    <t>Cap_Output1_existing</t>
-  </si>
-  <si>
-    <t>Cap_Output2_existing</t>
-  </si>
-  <si>
-    <t>Cap_Output2_max</t>
-  </si>
-  <si>
-    <t>Cap_Output_1_max</t>
-  </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>Relation_In_Out</t>
-  </si>
-  <si>
-    <t>Relation_In_In</t>
-  </si>
-  <si>
-    <t>Relation_Out_Out</t>
+    <t>connection_type_normal</t>
   </si>
   <si>
     <t>Storage</t>
   </si>
   <si>
-    <t>Connection_type</t>
-  </si>
-  <si>
-    <t>connection_type_lossless_bidirectional</t>
+    <t>value_before</t>
+  </si>
+  <si>
+    <t>value_start</t>
   </si>
   <si>
     <t>has_state</t>
@@ -184,85 +299,7 @@
     <t>node_state</t>
   </si>
   <si>
-    <t>value_before</t>
-  </si>
-  <si>
-    <t>value_start</t>
-  </si>
-  <si>
     <t>fix_node_state</t>
-  </si>
-  <si>
-    <t>Relation_Out_In</t>
-  </si>
-  <si>
-    <t>connection_type_normal</t>
-  </si>
-  <si>
-    <t>vom_cost</t>
-  </si>
-  <si>
-    <t>fom_cost</t>
-  </si>
-  <si>
-    <t>vom_cost_Input2</t>
-  </si>
-  <si>
-    <t>vom_cost_Output1</t>
-  </si>
-  <si>
-    <t>vom_cost_Output2</t>
-  </si>
-  <si>
-    <t>vom_cost_Input1</t>
-  </si>
-  <si>
-    <t>min_down_time</t>
-  </si>
-  <si>
-    <t>unit_on_cost</t>
-  </si>
-  <si>
-    <t>ramp_up_Output1</t>
-  </si>
-  <si>
-    <t>ramp_up_Output2</t>
-  </si>
-  <si>
-    <t>ramp_down_Output2</t>
-  </si>
-  <si>
-    <t>ramp_down_Output1</t>
-  </si>
-  <si>
-    <t>48h</t>
-  </si>
-  <si>
-    <t>start_up_Output1</t>
-  </si>
-  <si>
-    <t>start_up_Output2</t>
-  </si>
-  <si>
-    <t>shut_down_Output1</t>
-  </si>
-  <si>
-    <t>shut_down_Output2</t>
-  </si>
-  <si>
-    <t>unit_idle_heat_rate</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>minimum_op_point</t>
-  </si>
-  <si>
-    <t>Error messages:</t>
-  </si>
-  <si>
-    <t>Steam_Plant</t>
   </si>
 </sst>
 </file>
@@ -327,6 +364,17 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -344,17 +392,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -369,9 +406,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ7" totalsRowShown="0">
-  <autoFilter ref="A1:AJ7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AK7" totalsRowShown="0">
+  <autoFilter ref="A1:AK7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -385,6 +422,7 @@
     <tableColumn id="17" xr3:uid="{6408F114-841E-472E-92F5-7B63FF1B66F4}" name="Cap_Output_1_max"/>
     <tableColumn id="18" xr3:uid="{541C17F0-C020-47FE-9DA4-DB76D7416668}" name="Cap_Output2_existing"/>
     <tableColumn id="19" xr3:uid="{D6FEE63D-DC89-4D1A-9708-5E7C70FD5793}" name="Cap_Output2_max"/>
+    <tableColumn id="35" xr3:uid="{C3887B4E-C4A5-42AB-A92F-97AD44212E95}" name="mean_efficiency"/>
     <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="min_down_time"/>
     <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up_Output1"/>
     <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="ramp_up_Output2"/>
@@ -407,7 +445,7 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="0">
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
       <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -424,7 +462,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -453,7 +491,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -471,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,153 +805,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.7265625" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" customWidth="1"/>
-    <col min="35" max="35" width="19" customWidth="1"/>
-    <col min="36" max="36" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7265625" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7265625" customWidth="1"/>
+    <col min="36" max="36" width="19" customWidth="1"/>
+    <col min="37" max="37" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="J2">
         <v>304</v>
@@ -921,33 +963,33 @@
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
         <v>170.24</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1.29</v>
       </c>
-      <c r="AJ2" s="2" t="str">
+      <c r="AK2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>52</v>
@@ -955,35 +997,38 @@
       <c r="G3">
         <v>52</v>
       </c>
-      <c r="W3">
+      <c r="N3">
+        <v>0.6</v>
+      </c>
+      <c r="X3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1.76</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4.34</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.19</v>
       </c>
-      <c r="AJ3" s="2" t="str">
+      <c r="AK3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -991,32 +1036,32 @@
       <c r="K4">
         <v>100</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>280.5</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.1</v>
       </c>
-      <c r="AJ4" s="2" t="str">
+      <c r="AK4" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -1024,36 +1069,36 @@
       <c r="J5">
         <v>52</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>11.99</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f>1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="2" t="str">
+      <c r="AK5" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>52</v>
@@ -1064,67 +1109,70 @@
       <c r="M6">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
+        <v>0.7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.5</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.5</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4.57</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f>1/0.96</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4.32</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4.45</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.1</v>
       </c>
-      <c r="AJ6" s="2" t="str">
+      <c r="AK6" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.2</v>
       </c>
-      <c r="AJ7" s="1" t="str">
+      <c r="AK7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
@@ -1149,17 +1197,17 @@
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
     <col min="7" max="7" width="15.26953125" customWidth="1"/>
     <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
     <col min="10" max="10" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" customWidth="1"/>
     <col min="12" max="12" width="19" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" customWidth="1"/>
     <col min="14" max="14" width="19" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.81640625" customWidth="1"/>
@@ -1170,99 +1218,99 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -1297,22 +1345,22 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>1000</v>
@@ -1332,22 +1380,22 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>1000</v>
@@ -1367,16 +1415,16 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -1413,11 +1461,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -1427,39 +1475,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1474,12 +1522,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1494,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCC1DD-E064-4774-822D-3D8D47CE3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCC1DD-E064-4774-822D-3D8D47CE3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C302134D-1196-4EA9-A3F5-88A0BBFD1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,6 +1362,9 @@
       <c r="F3" t="s">
         <v>60</v>
       </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
       <c r="I3">
         <v>1000</v>
       </c>
@@ -1372,6 +1375,9 @@
         <v>1000</v>
       </c>
       <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
         <v>1000</v>
       </c>
       <c r="S3">
@@ -1397,6 +1403,9 @@
       <c r="F4" t="s">
         <v>60</v>
       </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
       <c r="I4">
         <v>1000</v>
       </c>
@@ -1407,6 +1416,9 @@
         <v>1000</v>
       </c>
       <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
         <v>1000</v>
       </c>
       <c r="S4">
@@ -1455,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C302134D-1196-4EA9-A3F5-88A0BBFD1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32411B78-865A-413B-8515-4A971BDF562A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,6 +1042,9 @@
       <c r="Y4">
         <v>1</v>
       </c>
+      <c r="AE4">
+        <v>26.81</v>
+      </c>
       <c r="AJ4">
         <v>0.1</v>
       </c>
@@ -1189,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32411B78-865A-413B-8515-4A971BDF562A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33584E-37B2-424E-AAE6-06E24AF88072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>100000</v>
+        <v>5478.6764505058327</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>100000</v>
+        <v>2640</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33584E-37B2-424E-AAE6-06E24AF88072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D3A1B-70EA-45BB-BA2E-E19B9F23EB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1534,7 +1534,7 @@
         <v>5478.6764505058327</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.147E-2</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D3A1B-70EA-45BB-BA2E-E19B9F23EB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892C506-773E-4F3B-8F5F-F19E7A693515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,7 +1384,7 @@
         <v>1000</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892C506-773E-4F3B-8F5F-F19E7A693515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8415D-C0A8-431C-9D52-EED5941C19C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,6 +1385,9 @@
       </c>
       <c r="S3">
         <v>0.88</v>
+      </c>
+      <c r="U3">
+        <v>7.2835616438356163E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8415D-C0A8-431C-9D52-EED5941C19C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4251A-F72A-472B-8361-D891D1F2895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1073,7 @@
         <v>52</v>
       </c>
       <c r="X5">
-        <v>11.99</v>
+        <v>7.9901515151515144E-3</v>
       </c>
       <c r="Y5">
         <f>1/0.795</f>
@@ -1156,19 +1156,28 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="J7">
-        <v>200</v>
+      <c r="F7">
+        <v>100</v>
       </c>
       <c r="X7">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0.99</v>
+      </c>
+      <c r="AC7">
+        <v>0.11929223744292237</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1</v>
       </c>
       <c r="AK7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
@@ -1192,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4251A-F72A-472B-8361-D891D1F2895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E04C5-D855-4560-B9A5-72D0722CFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,6 +1009,9 @@
       <c r="AC3">
         <v>4.34</v>
       </c>
+      <c r="AF3">
+        <v>1.4865951742627346</v>
+      </c>
       <c r="AI3">
         <v>0.19</v>
       </c>
@@ -1175,6 +1178,9 @@
       </c>
       <c r="AC7">
         <v>0.11929223744292237</v>
+      </c>
+      <c r="AF7">
+        <v>1.4865951742627346</v>
       </c>
       <c r="AJ7">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E04C5-D855-4560-B9A5-72D0722CFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD31BF8-3695-4071-BBDF-29FF9196858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,7 +1076,7 @@
         <v>52</v>
       </c>
       <c r="X5">
-        <v>7.9901515151515144E-3</v>
+        <v>10.273051948051947</v>
       </c>
       <c r="Y5">
         <f>1/0.795</f>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD31BF8-3695-4071-BBDF-29FF9196858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D85E59-02C2-41A6-B4E0-D93DE2B5F476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-3300" yWindow="-19950" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,10 +1025,10 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -1040,10 +1040,10 @@
         <v>100</v>
       </c>
       <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>280.5</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
       </c>
       <c r="AE4">
         <v>26.81</v>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D85E59-02C2-41A6-B4E0-D93DE2B5F476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB2979-11F4-4ED2-9248-6B471ED2E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3300" yWindow="-19950" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,7 +1076,7 @@
         <v>52</v>
       </c>
       <c r="X5">
-        <v>10.273051948051947</v>
+        <v>17.277901743828668</v>
       </c>
       <c r="Y5">
         <f>1/0.795</f>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB2979-11F4-4ED2-9248-6B471ED2E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC8720-1F6E-44C9-B03D-6E29CD1EEB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3300" yWindow="-19950" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,7 +1010,7 @@
         <v>4.34</v>
       </c>
       <c r="AF3">
-        <v>1.4865951742627346</v>
+        <v>1.4865951742627345E-3</v>
       </c>
       <c r="AI3">
         <v>0.19</v>
@@ -1180,7 +1180,7 @@
         <v>0.11929223744292237</v>
       </c>
       <c r="AF7">
-        <v>1.4865951742627346</v>
+        <v>1.4865951742627345E-3</v>
       </c>
       <c r="AJ7">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC8720-1F6E-44C9-B03D-6E29CD1EEB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C8ED2-2FB4-4199-AE44-DECB0E221A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-19950" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1171,7 +1171,7 @@
         <v>100</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>7.2437800000000002E-4</v>
       </c>
       <c r="Y7">
         <v>0.99</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C8ED2-2FB4-4199-AE44-DECB0E221A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5002E8D-78E9-4C11-9177-43D5EECB13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,7 +1134,7 @@
         <v>0.5</v>
       </c>
       <c r="X6">
-        <v>4.57</v>
+        <v>3.4889142857142859</v>
       </c>
       <c r="Y6">
         <f>1/0.96</f>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5002E8D-78E9-4C11-9177-43D5EECB13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE0305-849E-4F72-B812-E690CBB20E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,10 +1040,10 @@
         <v>100</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3.6010731197896975E-3</v>
       </c>
       <c r="Y4">
-        <v>280.5</v>
+        <v>0.99</v>
       </c>
       <c r="AE4">
         <v>26.81</v>
@@ -1134,7 +1134,7 @@
         <v>0.5</v>
       </c>
       <c r="X6">
-        <v>3.4889142857142859</v>
+        <v>5.1734967222388608</v>
       </c>
       <c r="Y6">
         <f>1/0.96</f>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE0305-849E-4F72-B812-E690CBB20E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321FB60-B687-4E86-A150-DE1458205CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1043,7 @@
         <v>3.6010731197896975E-3</v>
       </c>
       <c r="Y4">
-        <v>0.99</v>
+        <v>3.601073119789697E-3</v>
       </c>
       <c r="AE4">
         <v>26.81</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321FB60-B687-4E86-A150-DE1458205CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB6B4D-1557-49D8-974C-DE9B9750203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
@@ -1207,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1442,8 +1444,11 @@
       <c r="M4">
         <v>1000</v>
       </c>
-      <c r="S4">
-        <v>1</v>
+      <c r="Q4" s="3">
+        <v>0.99983999999999995</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.99983999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB6B4D-1557-49D8-974C-DE9B9750203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0450BA5-F4D8-4B3A-85C0-8E614B782A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -354,12 +354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1232,7 +1230,7 @@
     <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.81640625" customWidth="1"/>
     <col min="20" max="20" width="12.7265625" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" customWidth="1"/>
     <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1444,11 +1442,14 @@
       <c r="M4">
         <v>1000</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4">
         <v>0.99983999999999995</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>0.99983999999999995</v>
+      </c>
+      <c r="U4">
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -1483,8 +1484,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1494,7 +1496,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0450BA5-F4D8-4B3A-85C0-8E614B782A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -998,7 +998,7 @@
         <v>52</v>
       </c>
       <c r="N3">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>5.8500000000000002E-3</v>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0450BA5-F4D8-4B3A-85C0-8E614B782A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{B0450BA5-F4D8-4B3A-85C0-8E614B782A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E7CA9A-FE0B-4E20-A50F-9C1D62B5D954}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d2034e36-8705-4dfd-a632-cd174c2c5e1f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"b590661c-45e2-4f13-b772-b3756cc39e58"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>Unit</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>fix_node_state</t>
+  </si>
+  <si>
+    <t>resolution_output</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -354,15 +360,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -392,6 +401,9 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -405,10 +417,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AK7" totalsRowShown="0">
-  <autoFilter ref="A1:AK7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AL7" totalsRowShown="0">
+  <autoFilter ref="A1:AL7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="38">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -445,6 +461,7 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
+    <tableColumn id="39" xr3:uid="{52BB7FF5-8204-4DA8-90EB-65B1611ED0E8}" name="resolution_output" dataDxfId="3"/>
     <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
       <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
@@ -805,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,10 +851,11 @@
     <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.7265625" customWidth="1"/>
     <col min="36" max="36" width="19" customWidth="1"/>
-    <col min="37" max="37" width="17.453125" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,11 +964,14 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -970,12 +991,13 @@
       <c r="AC2">
         <v>1.29</v>
       </c>
-      <c r="AK2" s="2" t="str">
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -998,7 +1020,7 @@
         <v>52</v>
       </c>
       <c r="N3">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>5.8500000000000002E-3</v>
@@ -1015,12 +1037,13 @@
       <c r="AI3">
         <v>0.19</v>
       </c>
-      <c r="AK3" s="2" t="str">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1051,12 +1074,13 @@
       <c r="AJ4">
         <v>0.1</v>
       </c>
-      <c r="AK4" s="2" t="str">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1085,12 +1109,15 @@
       <c r="AJ5">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="2" t="str">
+      <c r="AK5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1149,12 +1176,13 @@
       <c r="AJ6">
         <v>0.1</v>
       </c>
-      <c r="AK6" s="2" t="str">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1185,16 +1213,22 @@
       <c r="AJ7">
         <v>0.1</v>
       </c>
-      <c r="AK7" s="1" t="str">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK7" xr:uid="{8771E67A-C02C-457D-9686-E902BF0F8B2C}">
+      <formula1>"h, D, W, Q, M, Y"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1207,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45DE6B2-903C-4C80-9498-10EAA20BD3F1}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d2034e36-8705-4dfd-a632-cd174c2c5e1f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"210897e0-4881-414f-bd24-48d4d4bcce74"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>Unit</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>fix_node_state</t>
+  </si>
+  <si>
+    <t>resolution_output</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -354,25 +360,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -392,6 +393,17 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -406,9 +418,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AK7" totalsRowShown="0">
-  <autoFilter ref="A1:AK7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AL7" totalsRowShown="0">
+  <autoFilter ref="A1:AL7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="38">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -445,7 +457,8 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
+    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="0"/>
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="1">
       <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -462,7 +475,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -491,7 +504,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -805,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,10 +847,11 @@
     <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.7265625" customWidth="1"/>
     <col min="36" max="36" width="19" customWidth="1"/>
-    <col min="37" max="37" width="17.453125" customWidth="1"/>
+    <col min="37" max="37" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,11 +960,14 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -970,12 +987,13 @@
       <c r="AC2">
         <v>1.29</v>
       </c>
-      <c r="AK2" s="2" t="str">
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1015,12 +1033,13 @@
       <c r="AI3">
         <v>0.19</v>
       </c>
-      <c r="AK3" s="2" t="str">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1051,12 +1070,13 @@
       <c r="AJ4">
         <v>0.1</v>
       </c>
-      <c r="AK4" s="2" t="str">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1085,12 +1105,15 @@
       <c r="AJ5">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="2" t="str">
+      <c r="AK5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1149,12 +1172,13 @@
       <c r="AJ6">
         <v>0.1</v>
       </c>
-      <c r="AK6" s="2" t="str">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1185,16 +1209,22 @@
       <c r="AJ7">
         <v>0.1</v>
       </c>
-      <c r="AK7" s="1" t="str">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK7" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+      <formula1>"h, D, W, M, Q, Y"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45DE6B2-903C-4C80-9498-10EAA20BD3F1}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350DF377-31C5-4078-A49F-3DF2DBA61E28}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"210897e0-4881-414f-bd24-48d4d4bcce74"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"153b108e-4a31-4e90-b222-87c6cdaf35d7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>Unit</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
 </sst>
 </file>
@@ -360,20 +363,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -394,15 +408,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,10 +426,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AL7" totalsRowShown="0">
-  <autoFilter ref="A1:AL7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AM7" totalsRowShown="0">
+  <autoFilter ref="A1:AM7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
@@ -457,8 +470,9 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="0"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="1">
+    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="4"/>
+    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="3"/>
+    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
       <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -475,7 +489,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -504,7 +518,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -818,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -848,10 +862,11 @@
     <col min="33" max="33" width="8.7265625" customWidth="1"/>
     <col min="36" max="36" width="19" customWidth="1"/>
     <col min="37" max="37" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.453125" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,11 +978,14 @@
       <c r="AK1" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -988,12 +1006,13 @@
         <v>1.29</v>
       </c>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="2" t="str">
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1034,12 +1053,13 @@
         <v>0.19</v>
       </c>
       <c r="AK3" s="3"/>
-      <c r="AL3" s="2" t="str">
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1071,12 +1091,13 @@
         <v>0.1</v>
       </c>
       <c r="AK4" s="3"/>
-      <c r="AL4" s="2" t="str">
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1108,12 +1129,15 @@
       <c r="AK5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AL5" s="2" t="str">
+      <c r="AL5" s="4">
+        <v>20.192799999999998</v>
+      </c>
+      <c r="AM5" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1173,12 +1197,13 @@
         <v>0.1</v>
       </c>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="2" t="str">
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1210,12 +1235,13 @@
         <v>0.1</v>
       </c>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="1" t="str">
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350DF377-31C5-4078-A49F-3DF2DBA61E28}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67852A7B-B52C-4561-B976-F047CB6EA960}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"153b108e-4a31-4e90-b222-87c6cdaf35d7"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"56d80003-ecbe-478c-8e43-1a0c1458bc41"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -305,10 +305,10 @@
     <t>resolution_output</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>demand</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -979,7 +979,7 @@
         <v>76</v>
       </c>
       <c r="AL1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>36</v>
@@ -1127,7 +1127,7 @@
         <v>0.1</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" s="4">
         <v>20.192799999999998</v>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{40B4E73A-EA77-4643-B0C9-9E0954A17787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67852A7B-B52C-4561-B976-F047CB6EA960}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21882EED-8A47-4F9E-9E68-5EE208408FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>demand</t>
   </si>
   <si>
-    <t>W</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -424,10 +424,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21882EED-8A47-4F9E-9E68-5EE208408FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D2A87-272E-4E4B-9BD0-C7BAEA0888FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D2A87-272E-4E4B-9BD0-C7BAEA0888FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988CC970-3AAB-42C5-B15C-77DB9C0427D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="2910" yWindow="-19350" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>Unit</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Object_type</t>
+  </si>
+  <si>
+    <t>PV_plant</t>
+  </si>
+  <si>
+    <t>Electrolyzer_PEM</t>
+  </si>
+  <si>
+    <t>Methanol_plant</t>
+  </si>
+  <si>
+    <t>Electric_Steam_Boiler</t>
+  </si>
+  <si>
+    <t>hydrogen_storage</t>
+  </si>
+  <si>
+    <t>methanol_storage</t>
+  </si>
+  <si>
+    <t>power_line</t>
+  </si>
+  <si>
+    <t>hydrogen_pipeline</t>
+  </si>
+  <si>
+    <t>pipeline</t>
   </si>
 </sst>
 </file>
@@ -427,10 +457,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AM7" totalsRowShown="0">
-  <autoFilter ref="A1:AM7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AN7" totalsRowShown="0">
+  <autoFilter ref="A1:AN7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
+    <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{C03E717E-B39B-450F-A07B-8C087AA65297}" name="Output1"/>
@@ -477,10 +508,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:Y5" totalsRowShown="0">
-  <autoFilter ref="A1:Y5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:Z5" totalsRowShown="0">
+  <autoFilter ref="A1:Z5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
+    <tableColumn id="26" xr3:uid="{E67F4435-EF76-417C-B715-53719E5FB41F}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
@@ -511,12 +543,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
-  <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
+  <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_start"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="has_state"/>
@@ -828,422 +861,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="10.54296875" customWidth="1"/>
-    <col min="24" max="24" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.7265625" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="19" customWidth="1"/>
-    <col min="37" max="37" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.453125" customWidth="1"/>
+    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="10.54296875" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7265625" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19" customWidth="1"/>
+    <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="J2">
-        <v>304</v>
       </c>
       <c r="K2">
         <v>304</v>
       </c>
-      <c r="AA2">
+      <c r="L2">
+        <v>304</v>
+      </c>
+      <c r="AB2">
         <f>Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
         <v>170.24</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1.29</v>
       </c>
-      <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="2" t="str">
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>42</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
       </c>
       <c r="G3">
         <v>52</v>
       </c>
-      <c r="N3">
+      <c r="H3">
+        <v>52</v>
+      </c>
+      <c r="O3">
         <v>0.75</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1.76</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4.34</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.19</v>
       </c>
-      <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-      <c r="AM3" s="2" t="str">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
       </c>
       <c r="K4">
         <v>100</v>
       </c>
-      <c r="X4">
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
         <v>3.6010731197896975E-3</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3.601073119789697E-3</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>26.81</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.1</v>
       </c>
-      <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-      <c r="AM4" s="2" t="str">
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>52</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>52</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>17.277901743828668</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f>1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AM5" s="4">
         <v>20.192799999999998</v>
       </c>
-      <c r="AM5" s="2" t="str">
+      <c r="AN5" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
       <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>52</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>51</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.5</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.5</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.5</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5.1734967222388608</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f>1/0.96</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4.32</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4.45</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.1</v>
       </c>
-      <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="2" t="str">
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="2" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>7.2437800000000002E-4</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.99</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.11929223744292237</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>0.1</v>
       </c>
-      <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="1" t="str">
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="1" t="str">
         <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK7" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL7" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1257,134 +1311,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" customWidth="1"/>
-    <col min="12" max="12" width="19" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" customWidth="1"/>
-    <col min="14" max="14" width="19" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" customWidth="1"/>
-    <col min="21" max="21" width="12.81640625" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="1.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="15" max="15" width="19" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12.7265625" customWidth="1"/>
+    <col min="22" max="22" width="12.81640625" customWidth="1"/>
+    <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
       <c r="H2">
         <v>1000</v>
       </c>
@@ -1406,36 +1463,39 @@
       <c r="N2">
         <v>1000</v>
       </c>
-      <c r="Q2">
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>60</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>1000</v>
       </c>
       <c r="J3">
@@ -1450,36 +1510,39 @@
       <c r="M3">
         <v>1000</v>
       </c>
-      <c r="S3">
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
         <v>0.88</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>7.2835616438356163E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>1000</v>
       </c>
       <c r="J4">
@@ -1494,42 +1557,48 @@
       <c r="M4">
         <v>1000</v>
       </c>
-      <c r="Q4">
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="R4">
         <v>0.99983999999999995</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.99983999999999995</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.0958904109589041E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
       <c r="H5">
         <v>1000</v>
       </c>
-      <c r="K5">
+      <c r="I5">
         <v>1000</v>
       </c>
       <c r="L5">
         <v>1000</v>
       </c>
-      <c r="S5">
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
     </row>
@@ -1545,102 +1614,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="b">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5478.6764505058327</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.147E-2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2640</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988CC970-3AAB-42C5-B15C-77DB9C0427D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43062FCA-C654-45A7-B219-90C9965826BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="-19350" windowWidth="28800" windowHeight="15225" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
     <sheet name="Connections" sheetId="2" r:id="rId2"/>
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
+    <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"56d80003-ecbe-478c-8e43-1a0c1458bc41"</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Unit</t>
   </si>
@@ -320,18 +321,9 @@
     <t>Electrolyzer_PEM</t>
   </si>
   <si>
-    <t>Methanol_plant</t>
-  </si>
-  <si>
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
-    <t>hydrogen_storage</t>
-  </si>
-  <si>
-    <t>methanol_storage</t>
-  </si>
-  <si>
     <t>power_line</t>
   </si>
   <si>
@@ -339,6 +331,24 @@
   </si>
   <si>
     <t>pipeline</t>
+  </si>
+  <si>
+    <t>object_type</t>
+  </si>
+  <si>
+    <t>Electrolyzer_AEC</t>
+  </si>
+  <si>
+    <t>Electrolyzer_SOEC</t>
+  </si>
+  <si>
+    <t>Methanol_Plant</t>
+  </si>
+  <si>
+    <t>Methanol_storage</t>
+  </si>
+  <si>
+    <t>Hydrogen_storage</t>
   </si>
 </sst>
 </file>
@@ -559,6 +569,16 @@
     <tableColumn id="11" xr3:uid="{3C880482-B284-4120-859D-C69724716B06}" name="Cost_invest"/>
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="fom_cost"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="vom_cost"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}" name="Table4" displayName="Table4" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{99EC3AFF-E76A-4BF2-94D0-13EEEC46286A}" name="object_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1186,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1255,7 +1275,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1306,6 +1326,18 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6165F12-61B4-4BB9-9C06-E04D7CAF2ECE}">
+          <x14:formula1>
+            <xm:f>Drop_Down!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1314,7 +1346,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1425,7 +1457,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1478,7 +1510,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1525,7 +1557,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1575,7 +1607,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1609,6 +1641,18 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0E20513-1104-4B15-91FE-F5533BE8DD9A}">
+          <x14:formula1>
+            <xm:f>Drop_Down!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1616,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1675,7 +1719,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1698,7 +1742,7 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1727,5 +1771,103 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BC2844F-319A-44D1-B1DA-7F8A5F123464}">
+          <x14:formula1>
+            <xm:f>Drop_Down!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC79B9-9C58-497E-9FD8-D3F2239E9BDC}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43062FCA-C654-45A7-B219-90C9965826BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{43062FCA-C654-45A7-B219-90C9965826BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE4FC374-A0E5-400A-9182-C2036740AE6E}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -464,6 +464,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,39 +887,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.81640625" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="10.54296875" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.7265625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7109375" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="32" max="32" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7265625" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" customWidth="1"/>
     <col min="37" max="37" width="19" customWidth="1"/>
-    <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.453125" customWidth="1"/>
+    <col min="40" max="40" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1175,9 +1179,6 @@
         <v>49</v>
       </c>
       <c r="H5">
-        <v>52</v>
-      </c>
-      <c r="K5">
         <v>52</v>
       </c>
       <c r="Y5">
@@ -1201,7 +1202,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1219,9 +1220,6 @@
       </c>
       <c r="F6" t="s">
         <v>42</v>
-      </c>
-      <c r="K6">
-        <v>52</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -1270,7 +1268,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
   </sheetData>
@@ -1349,30 +1347,30 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.81640625" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.81640625" customWidth="1"/>
-    <col min="21" max="21" width="12.7265625" customWidth="1"/>
-    <col min="22" max="22" width="12.81640625" customWidth="1"/>
-    <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>1.0958904109589041E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1660,26 +1658,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1794,72 +1792,72 @@
       <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{43062FCA-C654-45A7-B219-90C9965826BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE4FC374-A0E5-400A-9182-C2036740AE6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820DBE0-1FF8-4E59-A6CC-FF3E820A7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,39 +883,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="10.54296875" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7265625" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7265625" customWidth="1"/>
     <col min="37" max="37" width="19" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" customWidth="1"/>
+    <col min="40" max="40" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1121,7 +1117,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
   </sheetData>
@@ -1347,30 +1343,30 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="1.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
     <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
     <col min="15" max="15" width="19" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12.7265625" customWidth="1"/>
+    <col min="22" max="22" width="12.81640625" customWidth="1"/>
+    <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1450,7 +1446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>1.0958904109589041E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1658,26 +1654,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1735,12 +1731,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1792,72 +1788,72 @@
       <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>85</v>
       </c>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820DBE0-1FF8-4E59-A6CC-FF3E820A7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9820DBE0-1FF8-4E59-A6CC-FF3E820A7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5842884-B168-40A4-99A7-21D5CC6D3F3E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="8540" yWindow="90" windowWidth="8250" windowHeight="9650" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1177,6 +1177,9 @@
       <c r="H5">
         <v>52</v>
       </c>
+      <c r="K5">
+        <v>52</v>
+      </c>
       <c r="Y5">
         <v>17.277901743828668</v>
       </c>
@@ -1216,6 +1219,9 @@
       </c>
       <c r="F6" t="s">
         <v>42</v>
+      </c>
+      <c r="K6">
+        <v>52</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -1654,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820DBE0-1FF8-4E59-A6CC-FF3E820A7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9820DBE0-1FF8-4E59-A6CC-FF3E820A7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50E7B7F-27DF-41FD-9032-32F9E70F219A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"56d80003-ecbe-478c-8e43-1a0c1458bc41"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"786ba0cd-a80d-497b-9bfa-249ee8a2fc8d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9820DBE0-1FF8-4E59-A6CC-FF3E820A7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50E7B7F-27DF-41FD-9032-32F9E70F219A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0965FF4-9CF7-4532-82A5-7344253B3B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="3300" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1177,6 +1177,9 @@
       <c r="H5">
         <v>52</v>
       </c>
+      <c r="K5">
+        <v>52</v>
+      </c>
       <c r="Y5">
         <v>17.277901743828668</v>
       </c>
@@ -1216,6 +1219,9 @@
       </c>
       <c r="F6" t="s">
         <v>42</v>
+      </c>
+      <c r="K6">
+        <v>52</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -1654,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0965FF4-9CF7-4532-82A5-7344253B3B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A1A6D-E052-46CD-8617-C5F8AEF52E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1525,7 +1525,7 @@
         <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1572,7 +1572,7 @@
         <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>1000</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A1A6D-E052-46CD-8617-C5F8AEF52E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B03A51B-8A11-416C-9459-C1828BB51A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,6 +1544,9 @@
       </c>
       <c r="N3">
         <v>1000</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0.88</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\OneDrive - CBS - Copenhagen Business School\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B03A51B-8A11-416C-9459-C1828BB51A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"786ba0cd-a80d-497b-9bfa-249ee8a2fc8d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8308cfa2-248d-4de4-98dd-369dea72481e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,7 +1108,7 @@
         <v>1.4865951742627345E-3</v>
       </c>
       <c r="AJ3">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
@@ -1345,13 +1345,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="5" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" customWidth="1"/>
@@ -1793,9 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC79B9-9C58-497E-9FD8-D3F2239E9BDC}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh.eco\OneDrive - CBS - Copenhagen Business School\Documents\GitHub\Nord_H2ub\Spine_Projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53B4C2-3F9A-4212-A4AA-3B27F8EFC481}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"8308cfa2-248d-4de4-98dd-369dea72481e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f4626026-1bdc-4a7b-a8fd-933727cea1bf"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53B4C2-3F9A-4212-A4AA-3B27F8EFC481}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7896CAD2-A274-4FD6-A634-6443E68047A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="14010" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
   <si>
     <t>Unit</t>
   </si>
@@ -349,13 +349,70 @@
   </si>
   <si>
     <t>Hydrogen_storage</t>
+  </si>
+  <si>
+    <t>storage_investment_variable_type</t>
+  </si>
+  <si>
+    <t>candidate_storages</t>
+  </si>
+  <si>
+    <t>storage_investment_tech_lifetime</t>
+  </si>
+  <si>
+    <t>number_of_storages</t>
+  </si>
+  <si>
+    <t>storage_investment_cost</t>
+  </si>
+  <si>
+    <t>storage_investment_variable_type_continuous</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
+  <si>
+    <t>connection_investment_variable_type</t>
+  </si>
+  <si>
+    <t>candidate_connections</t>
+  </si>
+  <si>
+    <t>connection_investment_tech_lifetime</t>
+  </si>
+  <si>
+    <t>number_of_connections</t>
+  </si>
+  <si>
+    <t>connection_investment_cost</t>
+  </si>
+  <si>
+    <t>connection_investment_variable_type_continuous</t>
+  </si>
+  <si>
+    <t>unit_investment_variable_type</t>
+  </si>
+  <si>
+    <t>candidate_units</t>
+  </si>
+  <si>
+    <t>unit_investment_tech_lifetime</t>
+  </si>
+  <si>
+    <t>number_of_units</t>
+  </si>
+  <si>
+    <t>unit_investment_cost</t>
+  </si>
+  <si>
+    <t>unit_investment_variable_type_continuous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +439,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,10 +460,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -403,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,22 +493,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -444,8 +517,37 @@
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -467,9 +569,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AN7" totalsRowShown="0">
-  <autoFilter ref="A1:AN7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AS7" totalsRowShown="0">
+  <autoFilter ref="A1:AS7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
@@ -507,27 +609,30 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="4"/>
-    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="3"/>
-    <tableColumn id="37" xr3:uid="{EE9BC032-0112-449B-9748-951DE19178CE}" name="Error messages:" dataDxfId="2">
-      <calculatedColumnFormula>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="5"/>
+    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="unit_investment_variable_type"/>
+    <tableColumn id="41" xr3:uid="{6C055132-1EAE-464B-9586-C1CBFB93DE46}" name="candidate_units"/>
+    <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="unit_investment_tech_lifetime"/>
+    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="1"/>
+    <tableColumn id="44" xr3:uid="{5ABB776F-3BC0-406E-907C-4E35D2CBDA27}" name="unit_investment_cost"/>
+    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:Z5" totalsRowShown="0">
-  <autoFilter ref="A1:Z5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AE5" totalsRowShown="0">
+  <autoFilter ref="A1:AE5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
     <tableColumn id="26" xr3:uid="{E67F4435-EF76-417C-B715-53719E5FB41F}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -547,16 +652,21 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
+    <tableColumn id="27" xr3:uid="{97497B42-7369-4435-A0F6-3083BDCE5709}" name="connection_investment_variable_type"/>
+    <tableColumn id="28" xr3:uid="{477D63E9-4696-4858-8BA3-AC12DF5EA9AA}" name="candidate_connections"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime"/>
+    <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="number_of_connections"/>
+    <tableColumn id="31" xr3:uid="{FD5F1FDC-A519-47B1-8C2A-A84CD36A8B25}" name="connection_investment_cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
-  <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:P5" totalsRowShown="0">
+  <autoFilter ref="A1:P5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -569,6 +679,11 @@
     <tableColumn id="11" xr3:uid="{3C880482-B284-4120-859D-C69724716B06}" name="Cost_invest"/>
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="fom_cost"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="vom_cost"/>
+    <tableColumn id="9" xr3:uid="{A8A11461-F396-4D3E-B9FC-F4D1EE9D9AA5}" name="storage_investment_variable_type"/>
+    <tableColumn id="10" xr3:uid="{CE81AD39-C6F6-4493-9451-68A39075BF6E}" name="candidate_storages"/>
+    <tableColumn id="14" xr3:uid="{58E34C8A-1B4C-437B-981D-CD4CFED1B3A8}" name="storage_investment_tech_lifetime"/>
+    <tableColumn id="15" xr3:uid="{5FF71707-8528-4768-8697-8818F4BC14D6}" name="number_of_storages"/>
+    <tableColumn id="16" xr3:uid="{8C607D2E-BC5C-4E67-8BF2-33EAD803CDBB}" name="storage_investment_cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -881,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,10 +1027,10 @@
     <col min="37" max="37" width="19" customWidth="1"/>
     <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.453125" customWidth="1"/>
+    <col min="45" max="45" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,11 +1148,26 @@
       <c r="AM1" t="s">
         <v>77</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1062,12 +1192,24 @@
       </c>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
-      <c r="AN2" s="2" t="str">
-        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AR2">
+        <v>560000</v>
+      </c>
+      <c r="AS2" s="2"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1112,12 +1254,24 @@
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="2" t="str">
-        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AR3">
+        <v>1900000</v>
+      </c>
+      <c r="AS3" s="2"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1153,12 +1307,24 @@
       </c>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="2" t="str">
-        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AR4">
+        <v>500000</v>
+      </c>
+      <c r="AS4" s="2"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1196,12 +1362,24 @@
       <c r="AM5" s="4">
         <v>20.192799999999998</v>
       </c>
-      <c r="AN5" s="2" t="str">
-        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AR5">
+        <v>1350000</v>
+      </c>
+      <c r="AS5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1265,12 +1443,24 @@
       </c>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
-      <c r="AN6" s="2" t="str">
-        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AR6">
+        <v>1350000</v>
+      </c>
+      <c r="AS6" s="2"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1306,12 +1496,24 @@
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
-      <c r="AN7" s="1" t="str">
-        <f>IF( Table1[[#This Row],[minimum_op_point]]="", "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 1, "", IF( COUNTA(Table1[[#This Row],[Cap_Input1_existing]], Table1[[#This Row],[Cap_Input2_existing]], Table1[[#This Row],[Cap_Output1_existing]], Table1[[#This Row],[Cap_Output2_existing]]) = 0, "Capacity missing", "Too many capacities" ) ) )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AR7">
+        <v>150000</v>
+      </c>
+      <c r="AS7" s="2"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
   </sheetData>
@@ -1343,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,7 +1575,7 @@
     <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1452,8 +1654,23 @@
       <c r="Z1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1505,8 +1722,23 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1555,8 +1787,23 @@
       <c r="V3">
         <v>7.2835616438356163E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3">
+        <v>0.1</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1605,8 +1852,23 @@
       <c r="V4">
         <v>1.0958904109589041E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4">
+        <v>0.1</v>
+      </c>
+      <c r="AE4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1636,6 +1898,21 @@
       </c>
       <c r="T5">
         <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5">
+        <v>0.1</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1662,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L1" sqref="L1:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1683,7 +1960,7 @@
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1717,8 +1994,23 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1740,8 +2032,23 @@
       <c r="H2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1762,6 +2069,21 @@
       </c>
       <c r="H3" t="s">
         <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>1.3958682300390841E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7896CAD2-A274-4FD6-A634-6443E68047A2}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7F5DCA-56B4-4639-8E42-183E1DE32637}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f4626026-1bdc-4a7b-a8fd-933727cea1bf"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9bc45d17-43fd-4650-ba88-b8af6f587998"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -503,6 +503,17 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -537,17 +548,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -614,9 +614,9 @@
     <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="unit_investment_variable_type"/>
     <tableColumn id="41" xr3:uid="{6C055132-1EAE-464B-9586-C1CBFB93DE46}" name="candidate_units"/>
     <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="unit_investment_tech_lifetime"/>
-    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="3"/>
     <tableColumn id="44" xr3:uid="{5ABB776F-3BC0-406E-907C-4E35D2CBDA27}" name="unit_investment_cost"/>
-    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="0"/>
+    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,7 +632,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -666,7 +666,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:P5" totalsRowShown="0">
   <autoFilter ref="A1:P5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,13 +1196,13 @@
         <v>110</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="s">
         <v>98</v>
       </c>
       <c r="AQ2" s="6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>560000</v>
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AE5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1942,7 +1942,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P5"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2116,7 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC79B9-9C58-497E-9FD8-D3F2239E9BDC}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7F5DCA-56B4-4639-8E42-183E1DE32637}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E918D0C2-D677-4E3F-B9BA-C7A1F7EFA85C}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9bc45d17-43fd-4650-ba88-b8af6f587998"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"b0b17f6e-6b5a-4c7a-b8cb-963d8de9cdf7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -998,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,7 +1572,12 @@
     <col min="20" max="20" width="18.81640625" customWidth="1"/>
     <col min="21" max="21" width="12.7265625" customWidth="1"/>
     <col min="22" max="22" width="12.81640625" customWidth="1"/>
-    <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.453125" customWidth="1"/>
+    <col min="29" max="29" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
@@ -1941,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1958,6 +1963,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E918D0C2-D677-4E3F-B9BA-C7A1F7EFA85C}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6179BC3A-99B1-44F4-B028-C0637734B82A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-4905" yWindow="-16590" windowWidth="27570" windowHeight="14460" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b0b17f6e-6b5a-4c7a-b8cb-963d8de9cdf7"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4314f173-fa04-4c3c-aeab-2e7966634bac"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>Unit</t>
   </si>
@@ -393,16 +393,10 @@
     <t>unit_investment_variable_type</t>
   </si>
   <si>
-    <t>candidate_units</t>
-  </si>
-  <si>
     <t>unit_investment_tech_lifetime</t>
   </si>
   <si>
     <t>number_of_units</t>
-  </si>
-  <si>
-    <t>unit_investment_cost</t>
   </si>
   <si>
     <t>unit_investment_variable_type_continuous</t>
@@ -569,9 +563,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AS7" totalsRowShown="0">
-  <autoFilter ref="A1:AS7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ7" totalsRowShown="0">
+  <autoFilter ref="A1:AQ7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
@@ -612,10 +606,8 @@
     <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="5"/>
     <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="4"/>
     <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="unit_investment_variable_type"/>
-    <tableColumn id="41" xr3:uid="{6C055132-1EAE-464B-9586-C1CBFB93DE46}" name="candidate_units"/>
     <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="unit_investment_tech_lifetime"/>
     <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="3"/>
-    <tableColumn id="44" xr3:uid="{5ABB776F-3BC0-406E-907C-4E35D2CBDA27}" name="unit_investment_cost"/>
     <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -996,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,10 +1019,10 @@
     <col min="37" max="37" width="19" customWidth="1"/>
     <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.36328125" customWidth="1"/>
+    <col min="43" max="43" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,23 +1143,17 @@
       <c r="AN1" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" t="s">
         <v>106</v>
       </c>
       <c r="AP1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1193,23 +1179,17 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO2">
+        <v>108</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="6">
         <v>1</v>
       </c>
-      <c r="AP2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>560000</v>
-      </c>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AQ2" s="2"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1255,23 +1235,17 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO3" t="s">
         <v>98</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AP3" s="6">
         <v>0.2</v>
       </c>
-      <c r="AR3">
-        <v>1900000</v>
-      </c>
-      <c r="AS3" s="2"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AQ3" s="2"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1308,23 +1282,17 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO4" t="s">
         <v>98</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AP4" s="6">
         <v>0.2</v>
       </c>
-      <c r="AR4">
-        <v>500000</v>
-      </c>
-      <c r="AS4" s="2"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AQ4" s="2"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1363,23 +1331,17 @@
         <v>20.192799999999998</v>
       </c>
       <c r="AN5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" t="s">
         <v>98</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AP5" s="6">
         <v>0.2</v>
       </c>
-      <c r="AR5">
-        <v>1350000</v>
-      </c>
-      <c r="AS5" s="2"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AQ5" s="2"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1444,23 +1406,17 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO6" t="s">
         <v>98</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AP6" s="6">
         <v>0.2</v>
       </c>
-      <c r="AR6">
-        <v>1350000</v>
-      </c>
-      <c r="AS6" s="2"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AQ6" s="2"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1497,23 +1453,17 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO7" t="s">
         <v>98</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AP7" s="6">
         <v>0.2</v>
       </c>
-      <c r="AR7">
-        <v>150000</v>
-      </c>
-      <c r="AS7" s="2"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AQ7" s="2"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
   </sheetData>
@@ -1946,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6179BC3A-99B1-44F4-B028-C0637734B82A}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3543DFBB-342C-4D4C-AA20-3E427DB4F389}"/>
   <bookViews>
-    <workbookView xWindow="-4905" yWindow="-16590" windowWidth="27570" windowHeight="14460" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="28785" yWindow="-16440" windowWidth="16440" windowHeight="28440" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4314f173-fa04-4c3c-aeab-2e7966634bac"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a941d177-e092-4f1a-a5e6-19844c7b685c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>Unit</t>
   </si>
@@ -324,15 +324,6 @@
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
-    <t>power_line</t>
-  </si>
-  <si>
-    <t>hydrogen_pipeline</t>
-  </si>
-  <si>
-    <t>pipeline</t>
-  </si>
-  <si>
     <t>object_type</t>
   </si>
   <si>
@@ -351,12 +342,6 @@
     <t>Hydrogen_storage</t>
   </si>
   <si>
-    <t>storage_investment_variable_type</t>
-  </si>
-  <si>
-    <t>candidate_storages</t>
-  </si>
-  <si>
     <t>storage_investment_tech_lifetime</t>
   </si>
   <si>
@@ -366,30 +351,15 @@
     <t>storage_investment_cost</t>
   </si>
   <si>
-    <t>storage_investment_variable_type_continuous</t>
-  </si>
-  <si>
     <t>10Y</t>
   </si>
   <si>
-    <t>connection_investment_variable_type</t>
-  </si>
-  <si>
-    <t>candidate_connections</t>
-  </si>
-  <si>
     <t>connection_investment_tech_lifetime</t>
   </si>
   <si>
     <t>number_of_connections</t>
   </si>
   <si>
-    <t>connection_investment_cost</t>
-  </si>
-  <si>
-    <t>connection_investment_variable_type_continuous</t>
-  </si>
-  <si>
     <t>unit_investment_variable_type</t>
   </si>
   <si>
@@ -400,13 +370,37 @@
   </si>
   <si>
     <t>unit_investment_variable_type_continuous</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Hydrogen_pipeline</t>
+  </si>
+  <si>
+    <t>Power_line</t>
+  </si>
+  <si>
+    <t>Heat_pipeline</t>
+  </si>
+  <si>
+    <t>Methanol_pipeline</t>
+  </si>
+  <si>
+    <t>25Y</t>
+  </si>
+  <si>
+    <t>40Y</t>
+  </si>
+  <si>
+    <t>50Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +428,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -454,21 +441,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -487,15 +463,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -603,28 +583,28 @@
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
     <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
     <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="4"/>
+    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="6"/>
     <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="unit_investment_variable_type"/>
     <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="unit_investment_tech_lifetime"/>
-    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="3"/>
-    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="5"/>
+    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AE5" totalsRowShown="0">
-  <autoFilter ref="A1:AE5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AB5" totalsRowShown="0">
+  <autoFilter ref="A1:AB5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
     <tableColumn id="26" xr3:uid="{E67F4435-EF76-417C-B715-53719E5FB41F}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -644,21 +624,18 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="27" xr3:uid="{97497B42-7369-4435-A0F6-3083BDCE5709}" name="connection_investment_variable_type"/>
-    <tableColumn id="28" xr3:uid="{477D63E9-4696-4858-8BA3-AC12DF5EA9AA}" name="candidate_connections"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="0"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="number_of_connections"/>
-    <tableColumn id="31" xr3:uid="{FD5F1FDC-A519-47B1-8C2A-A84CD36A8B25}" name="connection_investment_cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:P5" totalsRowShown="0">
-  <autoFilter ref="A1:P5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
+  <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -671,9 +648,7 @@
     <tableColumn id="11" xr3:uid="{3C880482-B284-4120-859D-C69724716B06}" name="Cost_invest"/>
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="fom_cost"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="vom_cost"/>
-    <tableColumn id="9" xr3:uid="{A8A11461-F396-4D3E-B9FC-F4D1EE9D9AA5}" name="storage_investment_variable_type"/>
-    <tableColumn id="10" xr3:uid="{CE81AD39-C6F6-4493-9451-68A39075BF6E}" name="candidate_storages"/>
-    <tableColumn id="14" xr3:uid="{58E34C8A-1B4C-437B-981D-CD4CFED1B3A8}" name="storage_investment_tech_lifetime"/>
+    <tableColumn id="14" xr3:uid="{58E34C8A-1B4C-437B-981D-CD4CFED1B3A8}" name="storage_investment_tech_lifetime" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{5FF71707-8528-4768-8697-8818F4BC14D6}" name="number_of_storages"/>
     <tableColumn id="16" xr3:uid="{8C607D2E-BC5C-4E67-8BF2-33EAD803CDBB}" name="storage_investment_cost"/>
   </tableColumns>
@@ -682,8 +657,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}" name="Table4" displayName="Table4" ref="A1:A13" totalsRowShown="0">
-  <autoFilter ref="A1:A13" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}" name="Table4" displayName="Table4" ref="A1:A15" totalsRowShown="0">
+  <autoFilter ref="A1:A15" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{99EC3AFF-E76A-4BF2-94D0-13EEEC46286A}" name="object_type"/>
   </tableColumns>
@@ -990,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,6 +994,7 @@
     <col min="37" max="37" width="19" customWidth="1"/>
     <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1141,13 +1117,13 @@
         <v>77</v>
       </c>
       <c r="AN1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AO1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AP1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>36</v>
@@ -1179,12 +1155,12 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AO2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="6">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="5">
         <v>1</v>
       </c>
       <c r="AQ2" s="2"/>
@@ -1235,12 +1211,12 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AO3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP3" s="6">
+        <v>92</v>
+      </c>
+      <c r="AP3" s="5">
         <v>0.2</v>
       </c>
       <c r="AQ3" s="2"/>
@@ -1282,12 +1258,12 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AO4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP4" s="6">
+        <v>92</v>
+      </c>
+      <c r="AP4" s="5">
         <v>0.2</v>
       </c>
       <c r="AQ4" s="2"/>
@@ -1297,7 +1273,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1331,12 +1307,12 @@
         <v>20.192799999999998</v>
       </c>
       <c r="AN5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AO5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP5" s="6">
+        <v>92</v>
+      </c>
+      <c r="AP5" s="5">
         <v>0.2</v>
       </c>
       <c r="AQ5" s="2"/>
@@ -1346,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1406,12 +1382,12 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AO6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP6" s="6">
+        <v>92</v>
+      </c>
+      <c r="AP6" s="5">
         <v>0.2</v>
       </c>
       <c r="AQ6" s="2"/>
@@ -1453,12 +1429,12 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AO7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP7" s="6">
+        <v>92</v>
+      </c>
+      <c r="AP7" s="5">
         <v>0.2</v>
       </c>
       <c r="AQ7" s="2"/>
@@ -1495,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1524,13 +1500,11 @@
     <col min="22" max="22" width="12.81640625" customWidth="1"/>
     <col min="23" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="45.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.453125" customWidth="1"/>
-    <col min="29" max="29" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1609,28 +1583,19 @@
       <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1677,28 +1642,19 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
-        <v>104</v>
+      <c r="AA2" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2">
         <v>0.1</v>
       </c>
-      <c r="AE2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1742,28 +1698,19 @@
       <c r="V3">
         <v>7.2835616438356163E-2</v>
       </c>
-      <c r="AA3" t="s">
-        <v>104</v>
+      <c r="AA3" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3">
         <v>0.1</v>
       </c>
-      <c r="AE3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1807,28 +1754,19 @@
       <c r="V4">
         <v>1.0958904109589041E-2</v>
       </c>
-      <c r="AA4" t="s">
-        <v>104</v>
+      <c r="AA4" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4">
         <v>0.1</v>
       </c>
-      <c r="AE4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1854,20 +1792,11 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="AA5" t="s">
-        <v>104</v>
+      <c r="AA5" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD5">
         <v>0.1</v>
-      </c>
-      <c r="AE5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1880,11 +1809,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0E20513-1104-4B15-91FE-F5533BE8DD9A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85B4E672-DF5B-4E33-8C90-3907F490B7EF}">
           <x14:formula1>
-            <xm:f>Drop_Down!$A$2:$A$13</xm:f>
+            <xm:f>Drop_Down!$A$2:$A$60</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
+          <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1894,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,10 +1842,10 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.26953125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1950,28 +1879,22 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>93</v>
+      <c r="L1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1988,28 +1911,22 @@
       <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="L2" t="s">
-        <v>97</v>
+      <c r="L2" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2">
         <v>0.1</v>
       </c>
-      <c r="P2">
+      <c r="N2">
         <v>0.121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2026,19 +1943,13 @@
       <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
+      <c r="L3" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3">
         <v>0.1</v>
       </c>
-      <c r="P3">
+      <c r="N3">
         <v>1.3958682300390841E-4</v>
       </c>
     </row>
@@ -2070,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC79B9-9C58-497E-9FD8-D3F2239E9BDC}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2083,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -2093,7 +2004,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -2103,7 +2014,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -2113,7 +2024,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -2123,27 +2034,37 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3543DFBB-342C-4D4C-AA20-3E427DB4F389}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2089195-73D9-4E30-8D90-6A7A836DD69A}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-16440" windowWidth="16440" windowHeight="28440" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>Unit</t>
   </si>
@@ -351,9 +351,6 @@
     <t>storage_investment_cost</t>
   </si>
   <si>
-    <t>10Y</t>
-  </si>
-  <si>
     <t>connection_investment_tech_lifetime</t>
   </si>
   <si>
@@ -387,13 +384,7 @@
     <t>Methanol_pipeline</t>
   </si>
   <si>
-    <t>25Y</t>
-  </si>
-  <si>
-    <t>40Y</t>
-  </si>
-  <si>
-    <t>50Y</t>
+    <t>365D</t>
   </si>
 </sst>
 </file>
@@ -453,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,7 +455,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +614,7 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="2"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="number_of_connections"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -635,7 +625,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
   <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -648,7 +638,7 @@
     <tableColumn id="11" xr3:uid="{3C880482-B284-4120-859D-C69724716B06}" name="Cost_invest"/>
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="fom_cost"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="vom_cost"/>
-    <tableColumn id="14" xr3:uid="{58E34C8A-1B4C-437B-981D-CD4CFED1B3A8}" name="storage_investment_tech_lifetime" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{58E34C8A-1B4C-437B-981D-CD4CFED1B3A8}" name="storage_investment_tech_lifetime" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{5FF71707-8528-4768-8697-8818F4BC14D6}" name="number_of_storages"/>
     <tableColumn id="16" xr3:uid="{8C607D2E-BC5C-4E67-8BF2-33EAD803CDBB}" name="storage_investment_cost"/>
   </tableColumns>
@@ -965,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1117,13 +1107,13 @@
         <v>77</v>
       </c>
       <c r="AN1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO1" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>96</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>97</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>36</v>
@@ -1155,10 +1145,10 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AP2" s="5">
         <v>1</v>
@@ -1211,10 +1201,10 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AP3" s="5">
         <v>0.2</v>
@@ -1258,10 +1248,10 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AP4" s="5">
         <v>0.2</v>
@@ -1307,10 +1297,10 @@
         <v>20.192799999999998</v>
       </c>
       <c r="AN5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AP5" s="5">
         <v>0.2</v>
@@ -1382,10 +1372,10 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AP6" s="5">
         <v>0.2</v>
@@ -1429,10 +1419,10 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AP7" s="5">
         <v>0.2</v>
@@ -1474,7 +1464,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="AA2" sqref="AA2:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,7 +1490,7 @@
     <col min="22" max="22" width="12.81640625" customWidth="1"/>
     <col min="23" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1583,11 +1573,11 @@
       <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
         <v>93</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -1595,7 +1585,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1642,8 +1632,8 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>105</v>
+      <c r="AA2" t="s">
+        <v>103</v>
       </c>
       <c r="AB2">
         <v>0.1</v>
@@ -1654,7 +1644,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1698,8 +1688,8 @@
       <c r="V3">
         <v>7.2835616438356163E-2</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>106</v>
+      <c r="AA3" t="s">
+        <v>103</v>
       </c>
       <c r="AB3">
         <v>0.1</v>
@@ -1710,7 +1700,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1754,8 +1744,8 @@
       <c r="V4">
         <v>1.0958904109589041E-2</v>
       </c>
-      <c r="AA4" s="6" t="s">
-        <v>105</v>
+      <c r="AA4" t="s">
+        <v>103</v>
       </c>
       <c r="AB4">
         <v>0.1</v>
@@ -1766,7 +1756,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1792,8 +1782,8 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="AA5" s="6" t="s">
-        <v>105</v>
+      <c r="AA5" t="s">
+        <v>103</v>
       </c>
       <c r="AB5">
         <v>0.1</v>
@@ -1825,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1842,7 +1832,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1879,7 +1869,7 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>89</v>
       </c>
       <c r="M1" t="s">
@@ -1911,8 +1901,8 @@
       <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>104</v>
+      <c r="L2" t="s">
+        <v>103</v>
       </c>
       <c r="M2">
         <v>0.1</v>
@@ -1943,8 +1933,8 @@
       <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>104</v>
+      <c r="L3" t="s">
+        <v>103</v>
       </c>
       <c r="M3">
         <v>0.1</v>
@@ -2044,27 +2034,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2089195-73D9-4E30-8D90-6A7A836DD69A}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B5174C4-14DE-4334-B161-57A1B1895330}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>Cost_invest</t>
   </si>
   <si>
-    <t>unit_on_cost</t>
-  </si>
-  <si>
     <t>fom_cost</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>365D</t>
+  </si>
+  <si>
+    <t>units_on_cost</t>
   </si>
 </sst>
 </file>
@@ -532,6 +532,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ7" totalsRowShown="0">
   <autoFilter ref="A1:AQ7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
@@ -564,7 +568,7 @@
     <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="Relation_In_Out"/>
     <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_Out_Out"/>
     <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Cost_invest"/>
-    <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="unit_on_cost"/>
+    <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="units_on_cost"/>
     <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="fom_cost"/>
     <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="vom_cost"/>
     <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="vom_cost_Input1"/>
@@ -955,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1074,60 +1078,60 @@
         <v>26</v>
       </c>
       <c r="AC1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
       <c r="K2">
         <v>304</v>
@@ -1145,10 +1149,10 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP2" s="5">
         <v>1</v>
@@ -1157,22 +1161,22 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
       </c>
       <c r="G3">
         <v>52</v>
@@ -1201,10 +1205,10 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP3" s="5">
         <v>0.2</v>
@@ -1213,19 +1217,19 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -1248,10 +1252,10 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP4" s="5">
         <v>0.2</v>
@@ -1260,19 +1264,19 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -1291,16 +1295,16 @@
         <v>0.1</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM5" s="4">
         <v>20.192799999999998</v>
       </c>
       <c r="AN5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP5" s="5">
         <v>0.2</v>
@@ -1309,22 +1313,22 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
       </c>
       <c r="K6">
         <v>52</v>
@@ -1339,7 +1343,7 @@
         <v>0.7</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>0.5</v>
@@ -1372,10 +1376,10 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP6" s="5">
         <v>0.2</v>
@@ -1384,19 +1388,19 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -1419,10 +1423,10 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP7" s="5">
         <v>0.2</v>
@@ -1496,10 +1500,10 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1514,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1532,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1541,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -1553,54 +1557,54 @@
         <v>25</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
       </c>
       <c r="V1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
-        <v>33</v>
-      </c>
       <c r="AA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" t="s">
         <v>92</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1633,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB2">
         <v>0.1</v>
@@ -1641,25 +1645,25 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1689,7 +1693,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="AA3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB3">
         <v>0.1</v>
@@ -1697,25 +1701,25 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -1745,7 +1749,7 @@
         <v>1.0958904109589041E-2</v>
       </c>
       <c r="AA4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB4">
         <v>0.1</v>
@@ -1753,19 +1757,19 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1783,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB5">
         <v>0.1</v>
@@ -1815,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1837,54 +1841,54 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1899,10 +1903,10 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>0.1</v>
@@ -1913,10 +1917,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1931,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>0.1</v>
@@ -1984,77 +1988,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B5174C4-14DE-4334-B161-57A1B1895330}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEAA3A66-29A5-468E-9497-9C7649FC20A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"a941d177-e092-4f1a-a5e6-19844c7b685c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8c3e62b9-2db8-4eff-bc49-a7b631e6a873"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -381,10 +381,10 @@
     <t>Methanol_pipeline</t>
   </si>
   <si>
-    <t>365D</t>
-  </si>
-  <si>
     <t>units_on_cost</t>
+  </si>
+  <si>
+    <t>1Y</t>
   </si>
 </sst>
 </file>
@@ -530,10 +530,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP25" sqref="AP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,6 +985,7 @@
     <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1078,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD1" t="s">
         <v>27</v>
@@ -1152,7 +1149,7 @@
         <v>96</v>
       </c>
       <c r="AO2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP2" s="5">
         <v>1</v>
@@ -1208,7 +1205,7 @@
         <v>96</v>
       </c>
       <c r="AO3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP3" s="5">
         <v>0.2</v>
@@ -1255,7 +1252,7 @@
         <v>96</v>
       </c>
       <c r="AO4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP4" s="5">
         <v>0.2</v>
@@ -1304,7 +1301,7 @@
         <v>96</v>
       </c>
       <c r="AO5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP5" s="5">
         <v>0.2</v>
@@ -1379,7 +1376,7 @@
         <v>96</v>
       </c>
       <c r="AO6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP6" s="5">
         <v>0.2</v>
@@ -1426,7 +1423,7 @@
         <v>96</v>
       </c>
       <c r="AO7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP7" s="5">
         <v>0.2</v>
@@ -1467,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AA5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1637,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB2">
         <v>0.1</v>
@@ -1693,7 +1690,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="AA3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB3">
         <v>0.1</v>
@@ -1749,7 +1746,7 @@
         <v>1.0958904109589041E-2</v>
       </c>
       <c r="AA4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB4">
         <v>0.1</v>
@@ -1787,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB5">
         <v>0.1</v>
@@ -1819,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1906,7 +1903,7 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M2">
         <v>0.1</v>
@@ -1938,7 +1935,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M3">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEAA3A66-29A5-468E-9497-9C7649FC20A9}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E827B7E0-5DDD-4E81-B7CF-6976C000577D}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-22695" yWindow="-21600" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"8c3e62b9-2db8-4eff-bc49-a7b631e6a873"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c22a6a05-0005-488b-bfe2-cbbbe086fca2"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>Unit</t>
   </si>
@@ -384,7 +384,22 @@
     <t>units_on_cost</t>
   </si>
   <si>
-    <t>1Y</t>
+    <t>50Y</t>
+  </si>
+  <si>
+    <t>40Y</t>
+  </si>
+  <si>
+    <t>35Y</t>
+  </si>
+  <si>
+    <t>25Y</t>
+  </si>
+  <si>
+    <t>30Y</t>
+  </si>
+  <si>
+    <t>20Y</t>
   </si>
 </sst>
 </file>
@@ -955,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP25" sqref="AP25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,7 +1164,7 @@
         <v>96</v>
       </c>
       <c r="AO2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AP2" s="5">
         <v>1</v>
@@ -1205,7 +1220,7 @@
         <v>96</v>
       </c>
       <c r="AO3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AP3" s="5">
         <v>0.2</v>
@@ -1252,7 +1267,7 @@
         <v>96</v>
       </c>
       <c r="AO4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AP4" s="5">
         <v>0.2</v>
@@ -1301,7 +1316,7 @@
         <v>96</v>
       </c>
       <c r="AO5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AP5" s="5">
         <v>0.2</v>
@@ -1376,7 +1391,7 @@
         <v>96</v>
       </c>
       <c r="AO6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AP6" s="5">
         <v>0.2</v>
@@ -1423,7 +1438,7 @@
         <v>96</v>
       </c>
       <c r="AO7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AP7" s="5">
         <v>0.2</v>
@@ -1464,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB2">
         <v>0.1</v>
@@ -1784,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB5">
         <v>0.1</v>
@@ -1816,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1903,7 +1918,7 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M2">
         <v>0.1</v>
@@ -1935,7 +1950,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>0.1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Model_Data_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{96B3803C-A484-4494-82AB-C52E20681BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E827B7E0-5DDD-4E81-B7CF-6976C000577D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22695" yWindow="-21600" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1167,7 +1167,7 @@
         <v>105</v>
       </c>
       <c r="AP2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="2"/>
     </row>
@@ -1223,7 +1223,7 @@
         <v>106</v>
       </c>
       <c r="AP3" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="2"/>
     </row>
@@ -1270,7 +1270,7 @@
         <v>108</v>
       </c>
       <c r="AP4" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="2"/>
     </row>
@@ -1319,7 +1319,7 @@
         <v>107</v>
       </c>
       <c r="AP5" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="2"/>
     </row>
@@ -1394,7 +1394,7 @@
         <v>107</v>
       </c>
       <c r="AP6" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="2"/>
     </row>
@@ -1441,7 +1441,7 @@
         <v>108</v>
       </c>
       <c r="AP7" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="2"/>
     </row>
@@ -1480,7 +1480,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1652,7 +1652,7 @@
         <v>104</v>
       </c>
       <c r="AB2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
@@ -1708,7 +1708,7 @@
         <v>103</v>
       </c>
       <c r="AB3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
@@ -1764,7 +1764,7 @@
         <v>103</v>
       </c>
       <c r="AB4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -1802,7 +1802,7 @@
         <v>104</v>
       </c>
       <c r="AB5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1921,7 +1921,7 @@
         <v>106</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0.121</v>
@@ -1953,7 +1953,7 @@
         <v>106</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1.3958682300390841E-4</v>
